--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2819.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2819.xlsx
@@ -354,7 +354,7 @@
         <v>2.441130848511251</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.363481288432342</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2819.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2819.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175373588168488</v>
+        <v>0.8924640417098999</v>
       </c>
       <c r="B1">
-        <v>2.441130848511251</v>
+        <v>1.77788233757019</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.12475061416626</v>
       </c>
       <c r="D1">
-        <v>2.363481288432342</v>
+        <v>3.549455642700195</v>
       </c>
       <c r="E1">
-        <v>1.233348895925987</v>
+        <v>1.509981989860535</v>
       </c>
     </row>
   </sheetData>
